--- a/data/processed_data/data_casinos_pdf.xlsx
+++ b/data/processed_data/data_casinos_pdf.xlsx
@@ -1907,12 +1907,12 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NO DATA</t>
+          <t>RD Nº 3706 - 2025 - MINCETUR/DGJCMT - RD Nº 3706 - 2024 - MINCETUR/DGJCMT - RD Nº 3706 - 2023 - MINCETUR/DGJCMT</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>NO DATA</t>
+          <t>data/downloaded_pdfs\3706_-_2025.pdf - data/downloaded_pdfs\3706_-_2024.pdf - data/downloaded_pdfs\3706_-_2023.pdf</t>
         </is>
       </c>
     </row>
